--- a/solutions/nvidia/ai/dgx-superpod/presales/infrastructure-costs.xlsx
+++ b/solutions/nvidia/ai/dgx-superpod/presales/infrastructure-costs.xlsx
@@ -14,9 +14,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sizing Guidelines'!$A$2:$F$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Credits'!$A$2:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$7</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -836,7 +836,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 22, 2025</t>
+          <t>November 24, 2025</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1962,428 +1962,36 @@
       </c>
     </row>
     <row r="15" ht="26" customHeight="1">
-      <c r="A15" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B15" s="44" t="inlineStr">
-        <is>
-          <t>Site Assessment &amp; Planning</t>
-        </is>
-      </c>
-      <c r="C15" s="44" t="inlineStr">
-        <is>
-          <t>Facilities assessment and deployment planning</t>
-        </is>
-      </c>
-      <c r="D15" s="45" t="n">
-        <v>80</v>
-      </c>
-      <c r="E15" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F15" s="46" t="n">
-        <v>250</v>
-      </c>
-      <c r="G15" s="46">
-        <f>$80*$250</f>
-        <v/>
-      </c>
-      <c r="H15" s="46">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="I15" s="46">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="J15" s="46">
-        <f>$20000</f>
-        <v/>
-      </c>
-      <c r="K15" s="44" t="inlineStr">
-        <is>
-          <t>Pre-deployment engineering</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="26" customHeight="1">
-      <c r="A16" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B16" s="48" t="inlineStr">
-        <is>
-          <t>Installation &amp; Configuration</t>
-        </is>
-      </c>
-      <c r="C16" s="48" t="inlineStr">
-        <is>
-          <t>DGX system installation and InfiniBand setup</t>
-        </is>
-      </c>
-      <c r="D16" s="49" t="n">
-        <v>200</v>
-      </c>
-      <c r="E16" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F16" s="50" t="n">
-        <v>250</v>
-      </c>
-      <c r="G16" s="50">
-        <f>$200*$250</f>
-        <v/>
-      </c>
-      <c r="H16" s="50">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="I16" s="50">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="J16" s="50">
-        <f>$50000</f>
-        <v/>
-      </c>
-      <c r="K16" s="48" t="inlineStr">
-        <is>
-          <t>System deployment</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="26" customHeight="1">
-      <c r="A17" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B17" s="44" t="inlineStr">
-        <is>
-          <t>Network &amp; Storage Setup</t>
-        </is>
-      </c>
-      <c r="C17" s="44" t="inlineStr">
-        <is>
-          <t>InfiniBand fabric and storage cluster configuration</t>
-        </is>
-      </c>
-      <c r="D17" s="45" t="n">
-        <v>120</v>
-      </c>
-      <c r="E17" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F17" s="46" t="n">
-        <v>250</v>
-      </c>
-      <c r="G17" s="46">
-        <f>$120*$250</f>
-        <v/>
-      </c>
-      <c r="H17" s="46">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="I17" s="46">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="J17" s="46">
-        <f>$30000</f>
-        <v/>
-      </c>
-      <c r="K17" s="44" t="inlineStr">
-        <is>
-          <t>Network and storage integration</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="26" customHeight="1">
-      <c r="A18" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B18" s="48" t="inlineStr">
-        <is>
-          <t>Software &amp; Workload Setup</t>
-        </is>
-      </c>
-      <c r="C18" s="48" t="inlineStr">
-        <is>
-          <t>NGC container deployment and AI framework setup</t>
-        </is>
-      </c>
-      <c r="D18" s="49" t="n">
-        <v>80</v>
-      </c>
-      <c r="E18" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F18" s="50" t="n">
-        <v>250</v>
-      </c>
-      <c r="G18" s="50">
-        <f>$80*$250</f>
-        <v/>
-      </c>
-      <c r="H18" s="50">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="I18" s="50">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="J18" s="50">
-        <f>$20000</f>
-        <v/>
-      </c>
-      <c r="K18" s="48" t="inlineStr">
-        <is>
-          <t>Software stack configuration</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="26" customHeight="1">
-      <c r="A19" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B19" s="44" t="inlineStr">
-        <is>
-          <t>Performance Optimization</t>
-        </is>
-      </c>
-      <c r="C19" s="44" t="inlineStr">
-        <is>
-          <t>Workload benchmarking and performance tuning</t>
-        </is>
-      </c>
-      <c r="D19" s="45" t="n">
-        <v>60</v>
-      </c>
-      <c r="E19" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F19" s="46" t="n">
-        <v>250</v>
-      </c>
-      <c r="G19" s="46">
-        <f>$60*$250</f>
-        <v/>
-      </c>
-      <c r="H19" s="46">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="I19" s="46">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="J19" s="46">
-        <f>$15000</f>
-        <v/>
-      </c>
-      <c r="K19" s="44" t="inlineStr">
-        <is>
-          <t>AI workload optimization</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="26" customHeight="1">
-      <c r="A20" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B20" s="48" t="inlineStr">
-        <is>
-          <t>Administrator Training</t>
-        </is>
-      </c>
-      <c r="C20" s="48" t="inlineStr">
-        <is>
-          <t>Technical training for infrastructure team</t>
-        </is>
-      </c>
-      <c r="D20" s="49" t="n">
-        <v>40</v>
-      </c>
-      <c r="E20" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F20" s="50" t="n">
-        <v>200</v>
-      </c>
-      <c r="G20" s="50">
-        <f>$40*$200</f>
-        <v/>
-      </c>
-      <c r="H20" s="50">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="I20" s="50">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="J20" s="50">
-        <f>$8000</f>
-        <v/>
-      </c>
-      <c r="K20" s="48" t="inlineStr">
-        <is>
-          <t>Knowledge transfer</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="26" customHeight="1">
-      <c r="A21" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B21" s="44" t="inlineStr">
-        <is>
-          <t>User Training</t>
-        </is>
-      </c>
-      <c r="C21" s="44" t="inlineStr">
-        <is>
-          <t>AI researcher and data scientist training</t>
-        </is>
-      </c>
-      <c r="D21" s="45" t="n">
-        <v>24</v>
-      </c>
-      <c r="E21" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F21" s="46" t="n">
-        <v>200</v>
-      </c>
-      <c r="G21" s="46">
-        <f>$24*$200</f>
-        <v/>
-      </c>
-      <c r="H21" s="46">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="I21" s="46">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="J21" s="46">
-        <f>$4800</f>
-        <v/>
-      </c>
-      <c r="K21" s="44" t="inlineStr">
-        <is>
-          <t>End-user enablement</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="26" customHeight="1">
-      <c r="A22" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B22" s="48" t="inlineStr">
-        <is>
-          <t>Project Management</t>
-        </is>
-      </c>
-      <c r="C22" s="48" t="inlineStr">
-        <is>
-          <t>End-to-end project coordination and delivery</t>
-        </is>
-      </c>
-      <c r="D22" s="49" t="n">
-        <v>160</v>
-      </c>
-      <c r="E22" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F22" s="50" t="n">
-        <v>175</v>
-      </c>
-      <c r="G22" s="50">
-        <f>$160*$175</f>
-        <v/>
-      </c>
-      <c r="H22" s="50">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="I22" s="50">
-        <f>$0</f>
-        <v/>
-      </c>
-      <c r="J22" s="50">
-        <f>$28000</f>
-        <v/>
-      </c>
-      <c r="K22" s="48" t="inlineStr">
-        <is>
-          <t>Implementation oversight</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="26" customHeight="1">
-      <c r="A23" s="51" t="inlineStr">
+      <c r="A15" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B23" s="52" t="n"/>
-      <c r="C23" s="52" t="n"/>
-      <c r="D23" s="52" t="n"/>
-      <c r="E23" s="52" t="n"/>
-      <c r="F23" s="52" t="n"/>
-      <c r="G23" s="53">
-        <f>SUM(G3:G22)</f>
-        <v/>
-      </c>
-      <c r="H23" s="53">
-        <f>SUM(H3:H22)</f>
-        <v/>
-      </c>
-      <c r="I23" s="53">
-        <f>SUM(I3:I22)</f>
-        <v/>
-      </c>
-      <c r="J23" s="53">
-        <f>SUM(J3:J22)</f>
-        <v/>
-      </c>
-      <c r="K23" s="52" t="n"/>
+      <c r="B15" s="52" t="n"/>
+      <c r="C15" s="52" t="n"/>
+      <c r="D15" s="52" t="n"/>
+      <c r="E15" s="52" t="n"/>
+      <c r="F15" s="52" t="n"/>
+      <c r="G15" s="53">
+        <f>SUM(G3:G14)</f>
+        <v/>
+      </c>
+      <c r="H15" s="53">
+        <f>SUM(H3:H14)</f>
+        <v/>
+      </c>
+      <c r="I15" s="53">
+        <f>SUM(I3:I14)</f>
+        <v/>
+      </c>
+      <c r="J15" s="53">
+        <f>SUM(J3:J14)</f>
+        <v/>
+      </c>
+      <c r="K15" s="52" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K23"/>
+  <autoFilter ref="A2:K15"/>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
@@ -2536,7 +2144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2723,69 +2331,38 @@
       </c>
     </row>
     <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B7" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A7,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C7" s="46">
-        <f>SUMIF(Credits!$A:$A,A7,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D7" s="46">
-        <f>B7+C7</f>
-        <v/>
-      </c>
-      <c r="E7" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A7,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F7" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A7,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G7" s="46">
-        <f>D7+E7+F7</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="26" customHeight="1">
-      <c r="A8" s="51" t="inlineStr">
+      <c r="A7" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B8" s="53">
-        <f>SUM(B3:B7)</f>
-        <v/>
-      </c>
-      <c r="C8" s="53">
-        <f>SUM(C3:C7)</f>
-        <v/>
-      </c>
-      <c r="D8" s="53">
-        <f>SUM(D3:D7)</f>
-        <v/>
-      </c>
-      <c r="E8" s="53">
-        <f>SUM(E3:E7)</f>
-        <v/>
-      </c>
-      <c r="F8" s="53">
-        <f>SUM(F3:F7)</f>
-        <v/>
-      </c>
-      <c r="G8" s="53">
-        <f>SUM(G3:G7)</f>
+      <c r="B7" s="53">
+        <f>SUM(B3:B6)</f>
+        <v/>
+      </c>
+      <c r="C7" s="53">
+        <f>SUM(C3:C6)</f>
+        <v/>
+      </c>
+      <c r="D7" s="53">
+        <f>SUM(D3:D6)</f>
+        <v/>
+      </c>
+      <c r="E7" s="53">
+        <f>SUM(E3:E6)</f>
+        <v/>
+      </c>
+      <c r="F7" s="53">
+        <f>SUM(F3:F6)</f>
+        <v/>
+      </c>
+      <c r="G7" s="53">
+        <f>SUM(G3:G6)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G8"/>
+  <autoFilter ref="A2:G7"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
